--- a/Chapter_2.Seed_Bank_Seed Rain_and_Aboveground_Vegetation /Traits and Species Info/SR_SB_VEG_Traits_Dataset.xlsx
+++ b/Chapter_2.Seed_Bank_Seed Rain_and_Aboveground_Vegetation /Traits and Species Info/SR_SB_VEG_Traits_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/SR_SB_Veg_Analysis/Chapter_2.Seed_Bank_Seed Rain_and_Aboveground_Vegetation /Traits and Species Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEDFF8E-8757-934B-83A3-5A016DFA2A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89326B5-B300-8B45-ABFE-2AC3D4EEB6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="740" windowWidth="26460" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="879">
   <si>
     <t>SPP6</t>
   </si>
@@ -2655,6 +2655,24 @@
   </si>
   <si>
     <t>Life_History_Lumped</t>
+  </si>
+  <si>
+    <t>PLAMAJ</t>
+  </si>
+  <si>
+    <t>Plantago major</t>
+  </si>
+  <si>
+    <t>Broadleaf plaintain</t>
+  </si>
+  <si>
+    <t>TRISPP</t>
+  </si>
+  <si>
+    <t>Trifolium sp</t>
+  </si>
+  <si>
+    <t>Clover</t>
   </si>
 </sst>
 </file>
@@ -3021,8 +3039,8 @@
   <dimension ref="A1:AK1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3031,10 +3049,10 @@
     <col min="2" max="2" width="33.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="14" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -17899,7 +17917,36 @@
       </c>
     </row>
     <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P229" s="3"/>
+      <c r="B229" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="J229" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K229" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L229" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="M229" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N229" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O229" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P229" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="Q229" s="3"/>
       <c r="R229" s="9"/>
       <c r="T229" s="3"/>
@@ -17907,6 +17954,30 @@
       <c r="V229" s="3"/>
     </row>
     <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B230" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J230" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K230" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L230" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M230" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
